--- a/Documentación/Diccionario de datos.xlsx
+++ b/Documentación/Diccionario de datos.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerardo GC\Documents\TBD EQ. 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\reymi\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CB54F5-42E1-485B-844D-E1239620FADC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" tabRatio="602" firstSheet="4" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="602" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Proveedor" sheetId="3" r:id="rId1"/>
     <sheet name="Compra" sheetId="8" r:id="rId2"/>
-    <sheet name="Producto" sheetId="1" r:id="rId3"/>
-    <sheet name="Categorias" sheetId="7" r:id="rId4"/>
-    <sheet name="Cliente" sheetId="6" r:id="rId5"/>
-    <sheet name="Empleado" sheetId="2" r:id="rId6"/>
-    <sheet name="Venta" sheetId="5" r:id="rId7"/>
-    <sheet name="Detalle_Venta" sheetId="4" r:id="rId8"/>
+    <sheet name="Detalle_Compra" sheetId="10" r:id="rId3"/>
+    <sheet name="Presentacion" sheetId="9" r:id="rId4"/>
+    <sheet name="Producto" sheetId="1" r:id="rId5"/>
+    <sheet name="Categorias" sheetId="7" r:id="rId6"/>
+    <sheet name="Cliente" sheetId="6" r:id="rId7"/>
+    <sheet name="Empleado" sheetId="2" r:id="rId8"/>
+    <sheet name="Venta" sheetId="5" r:id="rId9"/>
+    <sheet name="Detalle_Venta" sheetId="4" r:id="rId10"/>
+    <sheet name="Detalle_Promocion" sheetId="11" r:id="rId11"/>
+    <sheet name="Promocion" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="101">
   <si>
     <t>Campo</t>
   </si>
@@ -183,9 +188,6 @@
     <t>Clave única del empleado</t>
   </si>
   <si>
-    <t>Cantidad del producto</t>
-  </si>
-  <si>
     <t>Clave única del producto</t>
   </si>
   <si>
@@ -234,9 +236,6 @@
     <t>Clave única del cliente</t>
   </si>
   <si>
-    <t>referencia hacia el cliente</t>
-  </si>
-  <si>
     <t>Clave única de la categoria</t>
   </si>
   <si>
@@ -246,29 +245,107 @@
     <t>Referencia al proveedor</t>
   </si>
   <si>
-    <t>Referencia a la venta</t>
+    <t>Referencia al producto</t>
+  </si>
+  <si>
+    <t>Clave única del artículo</t>
+  </si>
+  <si>
+    <t>Código de barras</t>
+  </si>
+  <si>
+    <t>idPresentacion</t>
+  </si>
+  <si>
+    <t>Correo</t>
+  </si>
+  <si>
+    <t>Correo electronico</t>
+  </si>
+  <si>
+    <t>Domicilio en donde habita</t>
+  </si>
+  <si>
+    <t>idCompra</t>
+  </si>
+  <si>
+    <t>Total_compra</t>
+  </si>
+  <si>
+    <t>Clave Unica de la Presentacion</t>
+  </si>
+  <si>
+    <t>Clave unica de Compra</t>
+  </si>
+  <si>
+    <t>Referencia a la Compra</t>
+  </si>
+  <si>
+    <t>Referencia hacia el cliente</t>
+  </si>
+  <si>
+    <t>idPromocion</t>
+  </si>
+  <si>
+    <t>Referencia de la Promocion</t>
+  </si>
+  <si>
+    <t>Referencia del Producto</t>
+  </si>
+  <si>
+    <t>Activa</t>
+  </si>
+  <si>
+    <t>Descripcion de la Promocion</t>
+  </si>
+  <si>
+    <t>Si sigue activa la promocion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Clave única para la Promocion</t>
+  </si>
+  <si>
+    <t>Jerarquia en la que se representa el empleado</t>
+  </si>
+  <si>
+    <t>Descripcion de la Presentacion</t>
+  </si>
+  <si>
+    <t>Cantidad de la Compra</t>
+  </si>
+  <si>
+    <t>El precio que se va comprar el producto</t>
+  </si>
+  <si>
+    <t>El total de la Compra</t>
+  </si>
+  <si>
+    <t>Fecha que se compro los productos</t>
+  </si>
+  <si>
+    <t>Jerarquia</t>
+  </si>
+  <si>
+    <t>Clave única de el empleado</t>
   </si>
   <si>
     <t>Precio_compra</t>
   </si>
   <si>
-    <t>Precio al que fue vendido por el proveedor</t>
-  </si>
-  <si>
-    <t>Referencia al producto</t>
-  </si>
-  <si>
-    <t>Clave única del artículo</t>
-  </si>
-  <si>
-    <t>Código de barras</t>
+    <t>double</t>
+  </si>
+  <si>
+    <t>Precio para la venta publica</t>
+  </si>
+  <si>
+    <t>Precio para la compra del proveedor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,12 +439,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -647,21 +724,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="11"/>
-    <col min="4" max="4" width="29.5546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="11"/>
+    <col min="4" max="4" width="29.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -675,7 +752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
@@ -689,7 +766,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -703,12 +780,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>8</v>
@@ -717,35 +794,307 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1">
+        <v>120</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="2"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30.75">
+      <c r="A7" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6">
+        <v>120</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>87</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -753,20 +1102,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -780,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="34.9" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>36</v>
       </c>
@@ -791,12 +1140,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="10" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>9</v>
@@ -805,12 +1154,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="54.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="54.6" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>9</v>
@@ -819,21 +1168,21 @@
         <v>30</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45">
       <c r="A5" s="10" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -842,23 +1191,177 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30">
+      <c r="A5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J4:J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4">
+        <v>45</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.77734375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="30">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -872,7 +1375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -883,10 +1386,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -897,10 +1400,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="14.45" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -914,7 +1417,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="30">
       <c r="A5" s="4" t="s">
         <v>27</v>
       </c>
@@ -928,7 +1431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -942,7 +1445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="30">
       <c r="A7" s="4" t="s">
         <v>29</v>
       </c>
@@ -956,7 +1459,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="30">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
@@ -970,7 +1473,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
         <v>34</v>
       </c>
@@ -984,237 +1487,33 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="12.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="52.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="10">
-        <v>100</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="11.5546875" style="14"/>
-    <col min="4" max="4" width="26.88671875" style="14" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="10">
-        <v>100</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="10">
-        <v>70</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="34.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="10">
-        <v>45</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1222,23 +1521,227 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30">
+      <c r="A2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="5"/>
-    <col min="3" max="3" width="12.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" style="8" customWidth="1"/>
-    <col min="5" max="16384" width="11.5546875" style="5"/>
+    <col min="1" max="3" width="11.5703125" style="13"/>
+    <col min="4" max="4" width="26.85546875" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
+        <v>100</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="10">
+        <v>120</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="10">
+        <v>20</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="10">
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45">
+      <c r="A7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="10">
+        <v>45</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="14"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="5"/>
+    <col min="3" max="3" width="12.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="11.5703125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="34.9" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1252,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
@@ -1266,7 +1769,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="30">
       <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
@@ -1280,7 +1783,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="30">
       <c r="A4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1294,7 +1797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -1308,7 +1811,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" ht="30">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
@@ -1322,7 +1825,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>18</v>
       </c>
@@ -1334,6 +1837,20 @@
       </c>
       <c r="D7" s="7" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30">
+      <c r="A8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1342,20 +1859,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="6" t="s">
         <v>42</v>
       </c>
@@ -1383,7 +1901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="6" t="s">
         <v>43</v>
       </c>
@@ -1397,7 +1915,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="6" t="s">
         <v>45</v>
       </c>
@@ -1408,22 +1926,30 @@
         <v>30</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
     </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1432,112 +1958,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>